--- a/parameter_files/v2/de_dg_gw_lower.xlsx
+++ b/parameter_files/v2/de_dg_gw_lower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{229B6D89-0FBA-4AFF-BE65-AE5ED1F338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B7AD51-1EA1-4728-9C9E-98CDE3442F56}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{229B6D89-0FBA-4AFF-BE65-AE5ED1F338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2EB3DCD-A786-45F0-8D56-81E871561EFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47BB98F9-56B8-471D-9F66-573A44E98337}"/>
   </bookViews>
@@ -668,10 +668,10 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,19 +1019,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="D30">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="E30">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="F30">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G30">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>

--- a/parameter_files/v2/de_dg_gw_lower.xlsx
+++ b/parameter_files/v2/de_dg_gw_lower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{229B6D89-0FBA-4AFF-BE65-AE5ED1F338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2EB3DCD-A786-45F0-8D56-81E871561EFB}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{229B6D89-0FBA-4AFF-BE65-AE5ED1F338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14984F9-0D13-4BCD-916C-E6CB672EE20C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47BB98F9-56B8-471D-9F66-573A44E98337}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47BB98F9-56B8-471D-9F66-573A44E98337}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -657,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD50E470-B89A-46FB-A183-8975EBAE0C5A}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,30 +680,30 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -717,7 +714,7 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -728,7 +725,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -739,7 +736,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -750,7 +747,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -761,7 +758,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -785,7 +782,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -796,7 +793,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -855,8 +852,8 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
+      <c r="A16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -880,7 +877,9 @@
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -891,9 +890,7 @@
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -901,13 +898,13 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
@@ -915,10 +912,12 @@
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
@@ -927,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -939,9 +938,7 @@
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -971,7 +968,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4"/>
@@ -992,8 +989,8 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4"/>
@@ -1003,34 +1000,23 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
         <v>-0.1</v>
       </c>
-      <c r="D30">
+      <c r="D29">
         <v>-0.1</v>
       </c>
-      <c r="E30">
+      <c r="E29">
         <v>-0.1</v>
       </c>
-      <c r="F30">
+      <c r="F29">
         <v>-0.1</v>
       </c>
-      <c r="G30">
+      <c r="G29">
         <v>-0.1</v>
       </c>
     </row>

--- a/parameter_files/v2/de_dg_gw_lower.xlsx
+++ b/parameter_files/v2/de_dg_gw_lower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{229B6D89-0FBA-4AFF-BE65-AE5ED1F338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14984F9-0D13-4BCD-916C-E6CB672EE20C}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{229B6D89-0FBA-4AFF-BE65-AE5ED1F338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90D57B4-7038-448F-808A-F6B6087112BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47BB98F9-56B8-471D-9F66-573A44E98337}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Bureau of Reclamation</t>
   </si>
@@ -138,13 +138,16 @@
   </si>
   <si>
     <t>GSAs</t>
+  </si>
+  <si>
+    <t>Groundwater Management (SWRCB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +159,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF6D01"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -192,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -299,28 +296,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -329,23 +314,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -363,6 +342,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD50E470-B89A-46FB-A183-8975EBAE0C5A}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,341 +665,352 @@
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.5</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="4">
         <v>0.5</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-0.1</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>-0.1</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>-0.1</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>-0.1</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>-0.1</v>
       </c>
     </row>
